--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى بالمانجا - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
+  </si>
+  <si>
+    <t>ريد بل فرى شوجر - 250 مل</t>
+  </si>
+  <si>
+    <t>ريد بول 12 كانز - 250 مل</t>
+  </si>
+  <si>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19501</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +447,78 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>1065</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1065</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>13928</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1065</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>13928</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>532</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>7630</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>205</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>ريد بل - 250 مل</t>
-  </si>
-  <si>
-    <t>ريد بل فرى شوجر - 250 مل</t>
-  </si>
-  <si>
-    <t>ريد بول 12 كانز - 250 مل</t>
-  </si>
-  <si>
-    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,78 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1065</v>
+        <v>1092.75</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5152</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1065</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>13928</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1065</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>13928</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>532</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>7630</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>205</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,31 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>شيبسى روو جبن شيدر و بصل - 10 جنية</t>
+  </si>
+  <si>
+    <t>مياه طبيعى ايلانو - 1.5 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى ظرف - 22 جرام</t>
+  </si>
+  <si>
+    <t>مياه اكوا دلتا - 600 مل</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بسكريم بالشوكولاتة 6 قطع - 10 جنية</t>
+  </si>
+  <si>
+    <t>برسيل يدوى لافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو 8 قطع - 70 جرام</t>
+  </si>
+  <si>
+    <t>مياه اكوا دلتا - 1.5 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +453,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>13228</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1092.75</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>12679</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>8943</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>879</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>580</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>344</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>14038</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>812</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>14038</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>526</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شيبسى روو جبن شيدر و بصل - 10 جنية</t>
-  </si>
-  <si>
-    <t>مياه طبيعى ايلانو - 1.5 مل</t>
-  </si>
-  <si>
-    <t>طحينة البوادى ظرف - 22 جرام</t>
-  </si>
-  <si>
-    <t>مياه اكوا دلتا - 600 مل</t>
-  </si>
-  <si>
-    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
-  </si>
-  <si>
-    <t>بسكويت اولكر بسكريم بالشوكولاتة 6 قطع - 10 جنية</t>
-  </si>
-  <si>
-    <t>برسيل يدوى لافندر - 1.5 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت اوريو 8 قطع - 70 جرام</t>
-  </si>
-  <si>
-    <t>مياه اكوا دلتا - 1.5 لتر</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>13228</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>12679</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>8943</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>525</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>879</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2486</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>580</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2486</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8872</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>344</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>14038</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>812</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>14038</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>526</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>1203</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>159</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>54.75</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11960</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54.75</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1704</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +444,44 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1429</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,53 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1429</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1446</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,31 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن بخيره - 500 مل</t>
-  </si>
-  <si>
-    <t>لبن بخيره - 1 لتر</t>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب برتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب اناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب كشمش الاسود - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب تفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب ليمون وردى - 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير دراجون فروت- 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +453,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>130</v>
+        <v>3889</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,15 +462,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>151</v>
+        <v>3891</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +479,129 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3892</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5945</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5946</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>12621</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20649</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير سن توب توت مشكل - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب برتقال - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب اناناس - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب كشمش الاسود - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب تفاح - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب ليمون وردى - 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير دراجون فروت- 250 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,155 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3889</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3891</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>249</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3892</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3893</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3894</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>249</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5945</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>249</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5946</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>249</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>12621</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20649</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>11770</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
+    <t>نواعم بسكويت- 5 ج</t>
+  </si>
+  <si>
+    <t>كلوركس كلور  أبيض عرض 2 في 1 - 950 مل</t>
+  </si>
+  <si>
+    <t>كتاكيتو فنجرز - 10 جنية</t>
+  </si>
+  <si>
+    <t>جوتيلا كونو بسكويت محشو بكريمة الشوكولاتة بالبندق - 25 جم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +444,138 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11770</v>
+        <v>972</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>48.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3043</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>155.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6083</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1366.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6083</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>12920</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>880</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>12920</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>73.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>13598</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>90.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>13606</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>366.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>نواعم بسكويت- 5 ج</t>
-  </si>
-  <si>
-    <t>كلوركس كلور  أبيض عرض 2 في 1 - 950 مل</t>
-  </si>
-  <si>
-    <t>كتاكيتو فنجرز - 10 جنية</t>
-  </si>
-  <si>
-    <t>جوتيلا كونو بسكويت محشو بكريمة الشوكولاتة بالبندق - 25 جم</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
-  </si>
-  <si>
-    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
+    <t>كوكاكولا اكشن - 300 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,138 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>972</v>
+        <v>6935</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>48.5</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3043</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>155.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>6083</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1366.25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>6083</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12920</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>880</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>12920</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>73.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>13598</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>90.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>13606</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>366.25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_704.xlsx
+++ b/Uploads/1_new_704.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
+    <t>اصلان عصير جوافة - 200 مل</t>
+  </si>
+  <si>
+    <t>اصلان عصير كيوي ليمون نعناع - 200 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة اورينتال خروب - 1 لتر</t>
+  </si>
+  <si>
+    <t>‫رويال فلاور مسحوق عادي قوة الليمون - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>جبنه دومتى جولد -- 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6935</v>
+        <v>8928</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +450,78 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>8932</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10605</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>531</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>13751</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>339</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>26103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>654</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
